--- a/Recycling/SwFD/SwFD_Min.xlsx
+++ b/Recycling/SwFD/SwFD_Min.xlsx
@@ -633,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>753628.4200128262</v>
+        <v>753628.4200128263</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>63858354.63908409</v>
+        <v>63858354.63908408</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4275813449.632024</v>
+        <v>4275813449.632025</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>959992678.1886235</v>
+        <v>959992678.1886234</v>
       </c>
     </row>
   </sheetData>
@@ -2261,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3913342263.86155</v>
+        <v>3913342263.861549</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18563689583.42991</v>
+        <v>18563689583.42992</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>70328208572.98735</v>
+        <v>70328208572.98737</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4481,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>64366750961.42716</v>
+        <v>64366750961.42715</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4555,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>56145734420.71805</v>
+        <v>56145734420.71806</v>
       </c>
     </row>
   </sheetData>
@@ -5221,7 +5221,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12671682499.68146</v>
+        <v>12671682499.68147</v>
       </c>
     </row>
   </sheetData>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91468940.98625694</v>
+        <v>91468940.98625696</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5961,7 +5961,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3631534468.286514</v>
+        <v>3631534468.286513</v>
       </c>
     </row>
   </sheetData>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77738262.59893961</v>
+        <v>77738262.59893963</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3863080748.222919</v>
+        <v>3863080748.22292</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2459015374.660013</v>
+        <v>2459015374.660012</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6257,7 +6257,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4228616575.290132</v>
+        <v>4228616575.290133</v>
       </c>
     </row>
   </sheetData>
@@ -6331,7 +6331,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4868917350.819045</v>
+        <v>4868917350.819044</v>
       </c>
     </row>
   </sheetData>
@@ -6553,7 +6553,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6577332653.420359</v>
+        <v>6577332653.42036</v>
       </c>
     </row>
   </sheetData>
@@ -6775,7 +6775,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7652070846.396029</v>
+        <v>7652070846.39603</v>
       </c>
     </row>
   </sheetData>
@@ -6923,7 +6923,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8389884551.840926</v>
+        <v>8389884551.840925</v>
       </c>
     </row>
   </sheetData>
@@ -7071,7 +7071,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8328889023.039203</v>
+        <v>8328889023.039202</v>
       </c>
     </row>
   </sheetData>
@@ -7145,7 +7145,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8096895820.653106</v>
+        <v>8096895820.653105</v>
       </c>
     </row>
   </sheetData>
@@ -7319,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8472861915.568849</v>
+        <v>8472861915.568848</v>
       </c>
     </row>
     <row r="3" spans="1:2">
